--- a/src/test/resources/Excel/Data.xlsx
+++ b/src/test/resources/Excel/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomaseko\eclipse-workspace\RestAssuredFramework\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E201AB-2BA2-46C0-9610-1EE908D7FB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B06C0-D197-4C4B-B1C5-E584D1B0FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>customerId</t>
   </si>
@@ -49,12 +49,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>2022-03-11T07:43:29.053</t>
-  </si>
-  <si>
-    <t>2022-03-11T07:49:31.053</t>
-  </si>
-  <si>
     <t>execute</t>
   </si>
   <si>
@@ -73,19 +67,82 @@
     <t>safetyQuestionnaireTest</t>
   </si>
   <si>
-    <t>createContractTest</t>
-  </si>
-  <si>
     <t>To check if the FA works</t>
   </si>
   <si>
-    <t>End to End testing of contract</t>
-  </si>
-  <si>
     <t>testdescription</t>
   </si>
   <si>
     <t>201</t>
+  </si>
+  <si>
+    <t>To check if the user is able to complete a R50 Campaign Challenge</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>contractStartDate</t>
+  </si>
+  <si>
+    <t>To check if the user is able to complete a R1000 Campaign Challenge</t>
+  </si>
+  <si>
+    <t>R1000CashBackCampaignTest</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>identityNumber</t>
+  </si>
+  <si>
+    <t>createPremierWithRSAIDTest</t>
+  </si>
+  <si>
+    <t>To create a create premier contract with RSA ID</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>createStarterWithRSAIDTest</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>To create a create starter contract with RSA ID</t>
+  </si>
+  <si>
+    <t>9602284800087</t>
+  </si>
+  <si>
+    <t>R50WooltruCampaignTest</t>
+  </si>
+  <si>
+    <t>R50PNPCampaignTest</t>
+  </si>
+  <si>
+    <t>sdvwev</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>7511174800085</t>
+  </si>
+  <si>
+    <t>9010104800081</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>7708134800086</t>
+  </si>
+  <si>
+    <t>9109135800084</t>
   </si>
 </sst>
 </file>
@@ -404,27 +461,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC10190-56A0-418A-A692-3A3752FC232B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -432,21 +489,65 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -456,41 +557,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -501,53 +611,175 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
